--- a/doc/talks/2024-simep/df_ref_per.xlsx
+++ b/doc/talks/2024-simep/df_ref_per.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\neonet\doc\talks\2024-simep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F728B02-A5C3-4F1C-9E44-87834DBC6236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43108D70-1A94-473A-8C67-AEA908B26FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2026" uniqueCount="900">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2031" uniqueCount="904">
   <si>
     <t>period</t>
   </si>
@@ -2723,6 +2723,18 @@
   </si>
   <si>
     <t>mm</t>
+  </si>
+  <si>
+    <t>um</t>
+  </si>
+  <si>
+    <t>ln</t>
+  </si>
+  <si>
+    <t>em</t>
+  </si>
+  <si>
+    <t>un</t>
   </si>
 </sst>
 </file>
@@ -3068,8 +3080,8 @@
   <dimension ref="A1:C1033"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
+      <pane ySplit="1" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D181" sqref="D181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3177,6 +3189,9 @@
       <c r="A12" t="s">
         <v>12</v>
       </c>
+      <c r="C12" s="1" t="s">
+        <v>900</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -4385,6 +4400,9 @@
       <c r="A169" t="s">
         <v>153</v>
       </c>
+      <c r="C169" s="1" t="s">
+        <v>903</v>
+      </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
@@ -5511,6 +5529,9 @@
       <c r="B318" t="s">
         <v>288</v>
       </c>
+      <c r="C318" s="1" t="s">
+        <v>901</v>
+      </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
@@ -7334,6 +7355,9 @@
       <c r="A568" t="s">
         <v>392</v>
       </c>
+      <c r="C568" s="1" t="s">
+        <v>901</v>
+      </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
@@ -7343,6 +7367,9 @@
     <row r="570" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>515</v>
+      </c>
+      <c r="C570" s="1" t="s">
+        <v>902</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.3">
